--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,13 +470,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>2500000</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -530,37 +530,67 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1500000</v>
+        <v>4500000</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Main B370</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Ram Gskill</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>750000</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>750000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Laptop Lenovo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16000000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -518,22 +518,30 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Main B360</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16000000</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="6">

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -470,135 +470,59 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2500000</v>
+        <v>2750000</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Main MSI</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>4</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Main Gigabyte</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
       </c>
       <c r="D3" t="n">
         <v>1750000</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Main MSI</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>250000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>Main B360</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16000000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2250000</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Main B370</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>150000</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ram Gskill</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>750000</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Laptop Lenovo</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>16000000</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
